--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -408,7 +408,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -416,34 +416,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.64453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2889,273 +2890,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870D4198-A7C1-4BAF-A0C4-09F1CE85B1C3}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6570969C-4F19-4538-B4AE-A7C2299F442B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3DD487-22B5-4681-8269-9169BC32694F}"/>
 </file>
--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t>autorita</t>
   </si>
   <si>
+    <t>{evento.sentenzaFiglioIncestuoso,=,false}</t>
+  </si>
+  <si>
     <t>Certificato Sanitario - Data</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
     <t>datiProdotti</t>
   </si>
   <si>
+    <t>{evento.sentenzaFiglioIncestuoso,=,true}</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -345,6 +357,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -433,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,6 +460,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="38.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,185 +482,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -666,2225 +712,2561 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante lo stato di gravidanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante lo stato di gravidanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -713,2560 +716,2560 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,6 +53,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -125,7 +128,7 @@
     <t>autorita</t>
   </si>
   <si>
-    <t>{evento.sentenzaFiglioIncestuoso,=,false}</t>
+    <t>evento.sentenzaFiglioIncestuoso,=,false</t>
   </si>
   <si>
     <t>Certificato Sanitario - Data</t>
@@ -149,7 +152,7 @@
     <t>datiProdotti</t>
   </si>
   <si>
-    <t>{evento.sentenzaFiglioIncestuoso,=,true}</t>
+    <t>evento.sentenzaFiglioIncestuoso,=,true</t>
   </si>
   <si>
     <t>Dichiarante</t>
@@ -362,7 +365,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,7 +466,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="38.0" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="36.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,13 +540,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -560,13 +563,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -583,7 +586,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -629,7 +632,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -652,7 +655,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -675,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -697,2579 +700,2602 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>26</v>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1529,22 +1535,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1552,22 +1558,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,22 +1696,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1713,22 +1719,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1736,22 +1742,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1759,22 +1765,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>27</v>
@@ -1782,22 +1788,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,22 +1880,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>27</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>15</v>
@@ -1943,22 +1949,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -1966,22 +1972,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -1989,22 +1995,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
         <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2061,7 +2067,7 @@
         <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2070,7 +2076,7 @@
         <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,22 +2087,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,22 +2202,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>15</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,22 +2294,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>27</v>
@@ -2311,22 +2317,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,22 +2386,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>27</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,22 +2432,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>27</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>15</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,22 +2501,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2518,22 +2524,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2544,22 +2550,22 @@
         <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -2567,22 +2573,22 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -2590,42 +2596,42 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>38</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
@@ -2656,22 +2662,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>38</v>
@@ -2679,22 +2685,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>38</v>
@@ -2702,599 +2708,691 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -371,7 +371,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -472,7 +475,7 @@
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3286,7 +3289,7 @@
         <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3306,19 +3309,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3332,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>17</v>
@@ -3352,10 +3355,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3364,7 +3367,7 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3375,10 +3378,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3387,7 +3390,7 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3289,7 +3286,7 @@
         <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3309,19 +3306,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3329,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>17</v>
@@ -3355,10 +3352,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3367,7 +3364,7 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3378,10 +3375,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3390,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3286,7 +3289,7 @@
         <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3306,19 +3309,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3332,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>17</v>
@@ -3352,10 +3355,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3364,7 +3367,7 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3375,10 +3378,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3387,7 +3390,7 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -463,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -473,7 +503,7 @@
     <col min="2" max="2" width="59.06640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2090,22 +2120,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2113,22 +2143,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2136,19 +2166,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2159,22 +2189,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2182,22 +2212,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
@@ -2205,22 +2235,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2228,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,22 +2281,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2274,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2297,22 +2327,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>27</v>
@@ -2320,22 +2350,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2343,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2366,22 +2396,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2389,19 +2419,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2412,22 +2442,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2435,22 +2465,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>27</v>
@@ -2458,22 +2488,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>27</v>
@@ -2481,19 +2511,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2504,22 +2534,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2527,22 +2557,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2550,19 +2580,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2573,22 +2603,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>27</v>
@@ -2596,19 +2626,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2619,783 +2649,1013 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -230,13 +236,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1591,22 +1597,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1614,22 +1620,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>27</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1752,22 +1758,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1844,22 +1850,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1867,22 +1873,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1890,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,22 +1965,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>27</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>15</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2051,22 +2057,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2074,22 +2080,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,22 +2149,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>27</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>15</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>15</v>
@@ -2258,22 +2264,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2281,22 +2287,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,22 +2402,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2511,22 +2517,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2534,22 +2540,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,22 +2609,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>27</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2649,22 +2655,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2718,22 +2724,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2741,22 +2747,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>27</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,22 +2793,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2833,22 +2839,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
@@ -2882,22 +2888,22 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
@@ -2905,22 +2911,22 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
@@ -2928,42 +2934,42 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>38</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
@@ -2994,22 +3000,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>38</v>
@@ -3017,22 +3023,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>38</v>
@@ -3040,622 +3046,714 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B137" s="2" t="s">
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
   </si>
   <si>
     <t>NO</t>
@@ -128,238 +128,235 @@
     <t>autorita</t>
   </si>
   <si>
+    <t>Certificato Sanitario - Data</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Concepito da n° mesi</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>mesiDalConcepimento</t>
+  </si>
+  <si>
+    <t>Presentazione documenti</t>
+  </si>
+  <si>
+    <t>datiProdotti</t>
+  </si>
+  <si>
+    <t>Dichiarante</t>
+  </si>
+  <si>
+    <t>tipoDichiarante</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Autorizzazione al riconoscimento</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoPadre.autorizzazione</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
     <t>evento.sentenzaFiglioIncestuoso,=,false</t>
-  </si>
-  <si>
-    <t>Certificato Sanitario - Data</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Concepito da n° mesi</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>mesiDalConcepimento</t>
-  </si>
-  <si>
-    <t>Presentazione documenti</t>
-  </si>
-  <si>
-    <t>datiProdotti</t>
-  </si>
-  <si>
-    <t>evento.sentenzaFiglioIncestuoso,=,true</t>
-  </si>
-  <si>
-    <t>Dichiarante</t>
-  </si>
-  <si>
-    <t>tipoDichiarante</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>Provincia AIRE</t>
-  </si>
-  <si>
-    <t>idProvinciaAIRE</t>
-  </si>
-  <si>
-    <t>Provincia AIRE - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaAIRE</t>
-  </si>
-  <si>
-    <t>Comune AIRE</t>
-  </si>
-  <si>
-    <t>idComuneAIRE</t>
-  </si>
-  <si>
-    <t>Comune AIRE - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Trasmissione residenza estera</t>
-  </si>
-  <si>
-    <t>flagTrasmissioneResidenzaEstera</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>Autorizzazione al riconoscimento</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoPadre.autorizzazione</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -499,14 +496,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="30.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="40.42578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -902,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -910,7 +907,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -919,13 +916,13 @@
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -933,22 +930,22 @@
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -956,7 +953,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -965,99 +962,99 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1068,19 +1065,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1091,19 +1088,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1114,19 +1111,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1137,19 +1134,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1160,19 +1157,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1183,19 +1180,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1206,19 +1203,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1229,19 +1226,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1252,19 +1249,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1275,19 +1272,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1298,19 +1295,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1318,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1341,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1364,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1387,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1410,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1433,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1456,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1479,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1502,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1525,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,22 +1548,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1574,19 +1571,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1620,22 +1617,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>27</v>
@@ -1643,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,22 +1732,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1758,19 +1755,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,22 +1778,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1804,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
@@ -1827,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,22 +1847,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1873,22 +1870,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1896,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,22 +1939,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>27</v>
@@ -1965,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,22 +1985,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2011,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>15</v>
@@ -2034,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,22 +2054,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2080,22 +2077,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2103,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,22 +2123,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2149,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,22 +2169,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2195,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>15</v>
@@ -2218,22 +2215,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
@@ -2241,22 +2238,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2264,22 +2261,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2287,22 +2284,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2310,19 +2307,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2330,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2376,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,22 +2399,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2425,19 +2422,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,22 +2445,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2471,19 +2468,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
@@ -2494,19 +2491,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,22 +2514,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2540,22 +2537,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2563,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2583,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,22 +2606,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>27</v>
@@ -2632,19 +2629,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2655,22 +2652,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2678,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
@@ -2701,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2724,22 +2721,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2747,22 +2744,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>27</v>
@@ -2770,19 +2767,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2793,22 +2790,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2816,19 +2813,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2839,22 +2836,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2862,19 +2859,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
@@ -2888,22 +2885,22 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
@@ -2911,22 +2908,22 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
@@ -2934,826 +2931,757 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G119" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G121" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G128" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G130" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1548,22 +1554,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>27</v>
@@ -1571,22 +1577,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,22 +1738,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>27</v>
@@ -1755,22 +1761,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1778,22 +1784,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
@@ -1824,22 +1830,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,22 +1899,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>27</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>15</v>
@@ -2008,22 +2014,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2031,22 +2037,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>27</v>
@@ -2054,22 +2060,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,22 +2129,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
@@ -2192,22 +2198,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
@@ -2238,22 +2244,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2261,22 +2267,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2399,22 +2405,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>15</v>
@@ -2468,22 +2474,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>27</v>
@@ -2491,22 +2497,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>27</v>
@@ -2514,22 +2520,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,22 +2589,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>27</v>
@@ -2606,22 +2612,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>27</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>27</v>
@@ -2652,22 +2658,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2744,22 +2750,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>27</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2813,19 +2819,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2836,22 +2842,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
@@ -2885,22 +2891,22 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
@@ -2908,22 +2914,22 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
@@ -2931,757 +2937,849 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B138" s="2" t="s">
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1577,22 +1583,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>27</v>
@@ -1600,22 +1606,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,22 +1767,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1784,22 +1790,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1807,22 +1813,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>27</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>15</v>
@@ -1853,22 +1859,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,22 +1905,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>27</v>
@@ -1922,22 +1928,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>27</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>15</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>15</v>
@@ -2060,22 +2066,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>27</v>
@@ -2083,22 +2089,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>27</v>
@@ -2106,22 +2112,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,22 +2181,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
@@ -2244,22 +2250,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>27</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>15</v>
@@ -2290,22 +2296,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2313,22 +2319,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>27</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,22 +2457,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>15</v>
@@ -2520,22 +2526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2543,22 +2549,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2566,22 +2572,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2589,22 +2595,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>27</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>15</v>
@@ -2658,22 +2664,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2681,22 +2687,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>27</v>
@@ -2704,22 +2710,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>27</v>
@@ -2727,22 +2733,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>15</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,22 +2802,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2819,22 +2825,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,22 +2871,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,22 +2917,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>27</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -2960,22 +2966,22 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
@@ -2983,22 +2989,22 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
@@ -3006,780 +3012,872 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="2" t="s">
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -3475,7 +3475,7 @@
         <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>132</v>
@@ -3498,7 +3498,7 @@
         <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>132</v>
@@ -3507,7 +3507,7 @@
         <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>134</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1606,22 +1618,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>27</v>
@@ -1629,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,22 +1664,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -1675,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,22 +1779,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>27</v>
@@ -1790,22 +1802,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>27</v>
@@ -1813,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,22 +1848,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>27</v>
@@ -1859,22 +1871,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>27</v>
@@ -1882,22 +1894,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>27</v>
@@ -1905,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>15</v>
@@ -1951,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
@@ -1974,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,22 +2009,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>27</v>
@@ -2020,22 +2032,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>27</v>
@@ -2043,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>15</v>
@@ -2066,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>15</v>
@@ -2112,22 +2124,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>27</v>
@@ -2135,22 +2147,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>27</v>
@@ -2158,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,22 +2193,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>27</v>
@@ -2204,22 +2216,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>27</v>
@@ -2227,22 +2239,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
@@ -2250,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,22 +2285,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>27</v>
@@ -2296,22 +2308,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>27</v>
@@ -2319,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>15</v>
@@ -2342,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,22 +2377,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>27</v>
@@ -2388,22 +2400,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>27</v>
@@ -2411,22 +2423,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>27</v>
@@ -2434,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,22 +2515,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>27</v>
@@ -2526,22 +2538,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>27</v>
@@ -2549,22 +2561,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>27</v>
@@ -2572,22 +2584,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>27</v>
@@ -2595,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>15</v>
@@ -2664,22 +2676,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2687,22 +2699,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>27</v>
@@ -2710,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>15</v>
@@ -2733,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,22 +2768,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>27</v>
@@ -2779,22 +2791,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>27</v>
@@ -2802,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>15</v>
@@ -2825,22 +2837,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2848,22 +2860,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2871,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,22 +2906,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2917,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -2963,22 +2975,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>27</v>
@@ -2986,22 +2998,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>27</v>
@@ -3009,22 +3021,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>27</v>
@@ -3032,852 +3044,1036 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>27</v>
       </c>
     </row>
